--- a/INSUMOS-ENIGHUR.xlsx
+++ b/INSUMOS-ENIGHUR.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Laboral 2023\CEPAL\Ecuador\Seccion 15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollambo\Desktop\GRUPO ENIGHUR\ENIGHUR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA22B4F0-BB9F-4F24-8201-7CCE71B9FF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11196"/>
   </bookViews>
   <sheets>
     <sheet name="INSUMOS" sheetId="1" r:id="rId1"/>
-    <sheet name="Tipologías de DOMINIO " sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId2"/>
+    <sheet name="Tipologías de DOMINIO " sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INSUMOS!$A$1:$O$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INSUMOS!$A$1:$AM$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="76">
   <si>
     <t>DOMINIO</t>
   </si>
@@ -76,15 +76,6 @@
     <t>RHO</t>
   </si>
   <si>
-    <t>NACIONAL</t>
-  </si>
-  <si>
-    <t>URBANO</t>
-  </si>
-  <si>
-    <t>RURAL</t>
-  </si>
-  <si>
     <t>Azuay</t>
   </si>
   <si>
@@ -191,16 +182,88 @@
   </si>
   <si>
     <t>Esmeraldas Ciudad</t>
+  </si>
+  <si>
+    <t>RANGO</t>
+  </si>
+  <si>
+    <t>AMPLITUD</t>
+  </si>
+  <si>
+    <t>DESV NUEVA</t>
+  </si>
+  <si>
+    <t>GRUPOS</t>
+  </si>
+  <si>
+    <t>MUESTRA</t>
+  </si>
+  <si>
+    <t>L_INFERIOR</t>
+  </si>
+  <si>
+    <t>L_SUPERIOR</t>
+  </si>
+  <si>
+    <t>L_INFERIOR_N</t>
+  </si>
+  <si>
+    <t>L_SUPERIOR_N</t>
+  </si>
+  <si>
+    <t>MER_N</t>
+  </si>
+  <si>
+    <t>AMPLITUD_N</t>
+  </si>
+  <si>
+    <t>RANGO_N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MER NUEVO </t>
+  </si>
+  <si>
+    <t>DESV NUEV0</t>
+  </si>
+  <si>
+    <t>LI NUEVO</t>
+  </si>
+  <si>
+    <t>LS NUEVO</t>
+  </si>
+  <si>
+    <t>RANGO NUEVO</t>
+  </si>
+  <si>
+    <t>AMPLITUD NUEVO</t>
+  </si>
+  <si>
+    <t>MER_N_2</t>
+  </si>
+  <si>
+    <t>DESV NUEVA_2</t>
+  </si>
+  <si>
+    <t>L_INFERIOR_N_2</t>
+  </si>
+  <si>
+    <t>L_SUPERIOR_N_2</t>
+  </si>
+  <si>
+    <t>AMPLITUD_N_2</t>
+  </si>
+  <si>
+    <t>RANGO_N_2</t>
+  </si>
+  <si>
+    <t>gg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,15 +308,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +364,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -346,12 +408,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -390,7 +451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -404,31 +464,34 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE699"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -703,2020 +766,5165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AM41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF40" sqref="AF40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="17" max="18" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
+    <col min="14" max="20" width="11.5546875" customWidth="1"/>
+    <col min="21" max="21" width="11.33203125" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="12.77734375" customWidth="1"/>
+    <col min="28" max="30" width="11.5546875" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" customWidth="1"/>
+    <col min="32" max="36" width="16.44140625" customWidth="1"/>
+    <col min="37" max="37" width="10.77734375" customWidth="1"/>
+    <col min="38" max="38" width="9.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="Q1" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH1" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI1" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL1" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="13">
-        <v>151.44658737303891</v>
-      </c>
-      <c r="C2" s="14">
-        <v>106.6631</v>
+      <c r="B2" s="15">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>158.52031181930013</v>
       </c>
       <c r="D2" s="13">
-        <v>0.9629729049917175</v>
-      </c>
-      <c r="E2" s="25">
-        <f>(D2/B2)*1.96</f>
-        <v>1.246265714218248E-2</v>
-      </c>
-      <c r="F2" s="13">
-        <v>3.2133356114752365</v>
+        <v>113.14790949778001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>3.1699726321792352</v>
+      </c>
+      <c r="F2" s="24">
+        <f t="shared" ref="F2:F34" si="0">(E2/C2)*1.96</f>
+        <v>3.9194638767514958E-2</v>
       </c>
       <c r="G2" s="13">
-        <v>2.870924</v>
+        <v>1.530617487460844</v>
       </c>
       <c r="H2" s="13">
-        <v>3859422.327141162</v>
+        <v>1.9837765576123401</v>
       </c>
       <c r="I2" s="13">
-        <v>106999</v>
+        <v>190833.86761405799</v>
       </c>
       <c r="J2" s="13">
-        <v>3410</v>
+        <v>2643</v>
       </c>
       <c r="K2" s="13">
-        <v>11.44</v>
-      </c>
-      <c r="L2" s="16">
+        <v>224</v>
+      </c>
+      <c r="L2" s="13">
+        <v>11.40625</v>
+      </c>
+      <c r="M2" s="15">
         <v>1</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="15">
+      <c r="N2" s="16"/>
+      <c r="O2" s="14">
         <v>0.95</v>
       </c>
-      <c r="O2" s="13">
-        <f>(G2-1)/(K2-1)</f>
-        <v>0.1792072796934866</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="P2" s="13">
+        <f>(H2-1)/(L2-1)</f>
+        <v>9.4537086617402052E-2</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2" si="1">C2-1.96*E2</f>
+        <v>152.30716546022884</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2" si="2">C2+1.96*E2</f>
+        <v>164.73345817837142</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="3">R2-Q2</f>
+        <v>12.426292718142577</v>
+      </c>
+      <c r="T2">
+        <f>1.96*E2</f>
+        <v>6.2131463590713008</v>
+      </c>
+      <c r="U2" s="31">
+        <f>Z2/C2</f>
+        <v>5.6775058645224252E-2</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="4">Z2/1.96</f>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W2">
+        <f>C2-V2*1.96</f>
+        <v>149.52031181930013</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2" si="5">C2+V2*1.96</f>
+        <v>167.52031181930013</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" ref="Y2" si="6">X2-W2</f>
+        <v>18</v>
+      </c>
+      <c r="Z2">
+        <v>9</v>
+      </c>
+      <c r="AA2">
+        <v>7.4319999999999997E-2</v>
+      </c>
+      <c r="AB2">
+        <f>AA2*C2/1.96</f>
+        <v>6.0108314155155034</v>
+      </c>
+      <c r="AC2">
+        <f>C2-1.96*AB2</f>
+        <v>146.73908224488974</v>
+      </c>
+      <c r="AD2">
+        <f>C2+1.96*AB2</f>
+        <v>170.30154139371052</v>
+      </c>
+      <c r="AE2">
+        <f>AB2*1.96</f>
+        <v>11.781229574410386</v>
+      </c>
+      <c r="AF2">
+        <f>AD2-AC2</f>
+        <v>23.562459148820778</v>
+      </c>
+      <c r="AG2">
+        <f>AL2/C2</f>
+        <v>7.5700078193632336E-2</v>
+      </c>
+      <c r="AH2">
+        <f>AL2/1.96</f>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI2">
+        <f>C2-AH2*1.96</f>
+        <v>146.52031181930013</v>
+      </c>
+      <c r="AJ2">
+        <f>C2+AH2*1.96</f>
+        <v>170.52031181930013</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" ref="AK2" si="7">AJ2-AI2</f>
+        <v>24</v>
+      </c>
+      <c r="AL2">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="13">
-        <v>164.05701365013363</v>
+      <c r="B3" s="15">
+        <v>1</v>
       </c>
       <c r="C3" s="13">
-        <v>111.02017413294701</v>
+        <v>120.0409349858194</v>
       </c>
       <c r="D3" s="13">
-        <v>1.1829932011117843</v>
-      </c>
-      <c r="E3" s="25">
-        <f t="shared" ref="E3:E37" si="0">(D3/B3)*1.96</f>
-        <v>1.4133298068705938E-2</v>
-      </c>
-      <c r="F3" s="13">
-        <v>3.0608066594326404</v>
-      </c>
-      <c r="G3" s="13">
-        <v>3.2601629999999999</v>
-      </c>
-      <c r="H3" s="13">
-        <v>2638985.3649191177</v>
-      </c>
-      <c r="I3" s="13">
-        <v>79647</v>
-      </c>
-      <c r="J3" s="13">
-        <v>2534</v>
-      </c>
-      <c r="K3" s="13">
-        <v>11.4439621152328</v>
-      </c>
-      <c r="L3" s="16">
-        <v>1</v>
-      </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="O3" s="13">
-        <f t="shared" ref="O3:O37" si="1">(G3-1)/(K3-1)</f>
-        <v>0.21640857895333526</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="13">
-        <v>124.17870593324426</v>
-      </c>
-      <c r="C4" s="13">
-        <v>90.772130022045403</v>
-      </c>
-      <c r="D4" s="13">
-        <v>1.4475761657110828</v>
-      </c>
-      <c r="E4" s="25">
-        <f t="shared" si="0"/>
-        <v>2.2848114444991598E-2</v>
-      </c>
-      <c r="F4" s="13">
-        <v>3.1707333184244915</v>
-      </c>
-      <c r="G4" s="13">
-        <v>2.3428550000000001</v>
-      </c>
-      <c r="H4" s="13">
-        <v>1220436.96222174</v>
-      </c>
-      <c r="I4" s="13">
-        <v>27352</v>
-      </c>
-      <c r="J4" s="13">
-        <v>876</v>
-      </c>
-      <c r="K4" s="13">
-        <v>11.445205479452101</v>
-      </c>
-      <c r="L4" s="16">
-        <v>1</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="O4" s="13">
-        <f t="shared" si="1"/>
-        <v>0.12856185573770437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13">
-        <v>158.52031181930013</v>
-      </c>
-      <c r="C5" s="13">
-        <v>113.14790949778001</v>
-      </c>
-      <c r="D5" s="13">
-        <v>3.1699726321792352</v>
-      </c>
-      <c r="E5" s="25">
-        <f t="shared" si="0"/>
-        <v>3.9194638767514958E-2</v>
-      </c>
-      <c r="F5" s="13">
-        <v>1.530617487460844</v>
-      </c>
-      <c r="G5" s="13">
-        <v>1.9837765576123401</v>
-      </c>
-      <c r="H5" s="13">
-        <v>190833.86761405799</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2643</v>
-      </c>
-      <c r="J5" s="13">
-        <v>224</v>
-      </c>
-      <c r="K5" s="13">
-        <v>11.40625</v>
-      </c>
-      <c r="L5" s="16">
-        <v>1</v>
-      </c>
-      <c r="M5" s="17"/>
-      <c r="N5" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="O5" s="13">
-        <f t="shared" si="1"/>
-        <v>9.4537086617402052E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="13">
-        <v>120.0409349858194</v>
-      </c>
-      <c r="C6" s="13">
         <v>103.95906279283901</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E3" s="13">
         <v>7.5019780098328699</v>
       </c>
-      <c r="E6" s="25">
+      <c r="F3" s="24">
         <f t="shared" si="0"/>
         <v>0.1224905229287777</v>
       </c>
-      <c r="F6" s="13">
+      <c r="G3" s="13">
         <v>2.3969499739801963</v>
       </c>
-      <c r="G6" s="13">
+      <c r="H3" s="13">
         <v>4.4410037818988704</v>
       </c>
-      <c r="H6" s="13">
+      <c r="I3" s="13">
         <v>45013.431832764647</v>
       </c>
-      <c r="I6" s="13">
+      <c r="J3" s="13">
         <v>1279</v>
       </c>
-      <c r="J6" s="13">
+      <c r="K3" s="13">
         <v>81</v>
       </c>
-      <c r="K6" s="13">
+      <c r="L3" s="13">
         <v>11.493827160493799</v>
       </c>
-      <c r="L6" s="16">
+      <c r="M3" s="15">
         <v>1</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="15">
+      <c r="N3" s="16"/>
+      <c r="O3" s="14">
         <v>0.95</v>
       </c>
-      <c r="O6" s="13">
-        <f t="shared" si="1"/>
+      <c r="P3" s="13">
+        <f t="shared" ref="P3:P34" si="8">(H3-1)/(L3-1)</f>
         <v>0.32790741921624617</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q34" si="9">C3-1.96*E3</f>
+        <v>105.33705808654697</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R34" si="10">C3+1.96*E3</f>
+        <v>134.74481188509182</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S34" si="11">R3-Q3</f>
+        <v>29.407753798544846</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T34" si="12">1.96*E3</f>
+        <v>14.703876899272425</v>
+      </c>
+      <c r="U3" s="31">
+        <f>Z3/C3</f>
+        <v>7.4974424358350611E-2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3" si="13">Z3/1.96</f>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3" si="14">C3-V3*1.96</f>
+        <v>111.0409349858194</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3" si="15">C3+V3*1.96</f>
+        <v>129.0409349858194</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3" si="16">X3-W3</f>
+        <v>18</v>
+      </c>
+      <c r="Z3">
+        <v>9</v>
+      </c>
+      <c r="AA3">
+        <v>9.4630000000000006E-2</v>
+      </c>
+      <c r="AB3">
+        <f>AA3*C3/1.96</f>
+        <v>5.795649835565353</v>
+      </c>
+      <c r="AC3">
+        <f>C3-1.96*AB3</f>
+        <v>108.68146130811131</v>
+      </c>
+      <c r="AD3">
+        <f>C3+1.96*AB3</f>
+        <v>131.40040866352749</v>
+      </c>
+      <c r="AE3">
+        <f>AB3*1.96</f>
+        <v>11.359473677708092</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" ref="AF3:AF4" si="17">AD3-AC3</f>
+        <v>22.718947355416176</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" ref="AG3:AG34" si="18">AL3/C3</f>
+        <v>7.4974424358350611E-2</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH34" si="19">AL3/1.96</f>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" ref="AI3:AI34" si="20">C3-AH3*1.96</f>
+        <v>111.0409349858194</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" ref="AJ3:AJ34" si="21">C3+AH3*1.96</f>
+        <v>129.0409349858194</v>
+      </c>
+      <c r="AK3">
+        <f t="shared" ref="AK3:AK34" si="22">AJ3-AI3</f>
+        <v>18</v>
+      </c>
+      <c r="AL3">
+        <v>9</v>
+      </c>
+      <c r="AM3" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="C4" s="13">
         <v>160.26655740596456</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D4" s="13">
         <v>116.383429002379</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E4" s="13">
         <v>7.3998337802456122</v>
       </c>
-      <c r="E7" s="25">
+      <c r="F4" s="24">
         <f t="shared" si="0"/>
         <v>9.0497196945104053E-2</v>
       </c>
-      <c r="F7" s="13">
+      <c r="G4" s="13">
         <v>2.5087114042952368</v>
       </c>
-      <c r="G7" s="13">
+      <c r="H4" s="13">
         <v>3.7434944752311199</v>
       </c>
-      <c r="H7" s="13">
+      <c r="I4" s="13">
         <v>60695.901959805589</v>
       </c>
-      <c r="I7" s="13">
+      <c r="J4" s="13">
         <v>1596</v>
       </c>
-      <c r="J7" s="13">
+      <c r="K4" s="13">
         <v>92</v>
       </c>
-      <c r="K7" s="13">
+      <c r="L4" s="13">
         <v>11.619565217391299</v>
       </c>
-      <c r="L7" s="16">
+      <c r="M4" s="15">
         <v>1</v>
       </c>
-      <c r="M7" s="17"/>
-      <c r="N7" s="15">
+      <c r="N4" s="16"/>
+      <c r="O4" s="14">
         <v>0.95</v>
       </c>
-      <c r="O7" s="13">
-        <f t="shared" si="1"/>
+      <c r="P4" s="13">
+        <f t="shared" si="8"/>
         <v>0.25834338968399506</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="Q4">
+        <f t="shared" si="9"/>
+        <v>145.76288319668316</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="10"/>
+        <v>174.77023161524596</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="11"/>
+        <v>29.007348418562799</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="12"/>
+        <v>14.503674209281399</v>
+      </c>
+      <c r="U4" s="31">
+        <f t="shared" ref="U4:U34" si="23">Z4/C4</f>
+        <v>5.6156444274287828E-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V34" si="24">Z4/1.96</f>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W34" si="25">C4-V4*1.96</f>
+        <v>151.26655740596456</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X34" si="26">C4+V4*1.96</f>
+        <v>169.26655740596456</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Y34" si="27">X4-W4</f>
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>9</v>
+      </c>
+      <c r="AA4">
+        <v>7.7240000000000003E-2</v>
+      </c>
+      <c r="AB4">
+        <f>AA4*C4/1.96</f>
+        <v>6.3158106602228079</v>
+      </c>
+      <c r="AC4">
+        <f>C4-1.96*AB4</f>
+        <v>147.88756851192787</v>
+      </c>
+      <c r="AD4">
+        <f>C4+1.96*AB4</f>
+        <v>172.64554630000126</v>
+      </c>
+      <c r="AE4">
+        <f>AB4*1.96</f>
+        <v>12.378988894036704</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="17"/>
+        <v>24.75797778807339</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="18"/>
+        <v>5.6156444274287828E-2</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="20"/>
+        <v>151.26655740596456</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="21"/>
+        <v>169.26655740596456</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AL4">
+        <v>9</v>
+      </c>
+      <c r="AM4" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13">
         <v>123.90297354854157</v>
       </c>
-      <c r="C8" s="13">
+      <c r="D5" s="13">
         <v>85.835070646567601</v>
       </c>
-      <c r="D8" s="13">
+      <c r="E5" s="13">
         <v>5.0207869223019896</v>
       </c>
-      <c r="E8" s="25">
+      <c r="F5" s="24">
         <f t="shared" si="0"/>
         <v>7.9422971748588284E-2</v>
       </c>
-      <c r="F8" s="13">
+      <c r="G5" s="13">
         <v>1.5725571495819008</v>
       </c>
-      <c r="G8" s="13">
+      <c r="H5" s="13">
         <v>2.1003180372691599</v>
       </c>
-      <c r="H8" s="13">
+      <c r="I5" s="13">
         <v>44948.927155297708</v>
       </c>
-      <c r="I8" s="13">
+      <c r="J5" s="13">
         <v>1288</v>
       </c>
-      <c r="J8" s="13">
+      <c r="K5" s="13">
         <v>83</v>
       </c>
-      <c r="K8" s="13">
+      <c r="L5" s="13">
         <v>11.638554216867499</v>
       </c>
-      <c r="L8" s="16">
+      <c r="M5" s="15">
         <v>1</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="15">
+      <c r="N5" s="16"/>
+      <c r="O5" s="14">
         <v>0.95</v>
       </c>
-      <c r="O8" s="13">
-        <f t="shared" si="1"/>
+      <c r="P5" s="13">
+        <f t="shared" si="8"/>
         <v>0.10342740327671576</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="13">
+      <c r="Q5">
+        <f t="shared" si="9"/>
+        <v>114.06223118082967</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="10"/>
+        <v>133.74371591625348</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="11"/>
+        <v>19.681484735423808</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="12"/>
+        <v>9.8407423677118988</v>
+      </c>
+      <c r="U5" s="31">
+        <f t="shared" si="23"/>
+        <v>7.2637481912200139E-2</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="25"/>
+        <v>114.90297354854157</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="26"/>
+        <v>132.90297354854158</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="27"/>
+        <v>18.000000000000014</v>
+      </c>
+      <c r="Z5">
+        <v>9</v>
+      </c>
+      <c r="AA5">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB5:AB34" si="28">AA5*C5/1.96</f>
+        <v>3.072288017581184</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC5" si="29">C5-1.96*AB5</f>
+        <v>117.88128903408244</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD34" si="30">C5+1.96*AB5</f>
+        <v>129.92465806300069</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE34" si="31">AB5*1.96</f>
+        <v>6.0216845144591202</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF34" si="32">AD5-AC5</f>
+        <v>12.043369028918249</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="18"/>
+        <v>7.2637481912200139E-2</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="20"/>
+        <v>114.90297354854157</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="21"/>
+        <v>132.90297354854158</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="22"/>
+        <v>18.000000000000014</v>
+      </c>
+      <c r="AL5">
+        <v>9</v>
+      </c>
+      <c r="AM5" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="13">
         <v>129.13475218179258</v>
       </c>
-      <c r="C9" s="13">
+      <c r="D6" s="13">
         <v>105.52900911504901</v>
       </c>
-      <c r="D9" s="13">
+      <c r="E6" s="13">
         <v>5.1396652873998177</v>
       </c>
-      <c r="E9" s="25">
+      <c r="F6" s="24">
         <f t="shared" si="0"/>
         <v>7.8009550435517827E-2</v>
       </c>
-      <c r="F9" s="13">
+      <c r="G6" s="13">
         <v>2.5240599252304534</v>
       </c>
-      <c r="G9" s="13">
+      <c r="H6" s="13">
         <v>2.6390983496709999</v>
       </c>
-      <c r="H9" s="13">
+      <c r="I6" s="13">
         <v>104086.55243722153</v>
       </c>
-      <c r="I9" s="13">
+      <c r="J6" s="13">
         <v>2807</v>
       </c>
-      <c r="J9" s="13">
+      <c r="K6" s="13">
         <v>107</v>
       </c>
-      <c r="K9" s="13">
+      <c r="L6" s="13">
         <v>11.411214953270999</v>
       </c>
-      <c r="L9" s="16">
+      <c r="M6" s="15">
         <v>1</v>
       </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="15">
+      <c r="N6" s="16"/>
+      <c r="O6" s="14">
         <v>0.95</v>
       </c>
-      <c r="O9" s="13">
-        <f t="shared" si="1"/>
+      <c r="P6" s="13">
+        <f t="shared" si="8"/>
         <v>0.15743583789479126</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="13">
+      <c r="Q6">
+        <f t="shared" si="9"/>
+        <v>119.06100821848894</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="10"/>
+        <v>139.20849614509621</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="11"/>
+        <v>20.147487926607269</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="12"/>
+        <v>10.073743963303642</v>
+      </c>
+      <c r="U6" s="31">
+        <f t="shared" si="23"/>
+        <v>6.9694639498204411E-2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="25"/>
+        <v>120.13475218179258</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="26"/>
+        <v>138.13475218179258</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6">
+        <v>6.9570000000000007E-2</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="28"/>
+        <v>4.5836248516771994</v>
+      </c>
+      <c r="AC6">
+        <f>C6-1.96*AB6</f>
+        <v>120.15084747250526</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="30"/>
+        <v>138.11865689107989</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="31"/>
+        <v>8.9839047092873106</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="32"/>
+        <v>17.967809418574632</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="18"/>
+        <v>6.9694639498204411E-2</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="20"/>
+        <v>120.13475218179258</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="21"/>
+        <v>138.13475218179258</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AL6">
+        <v>9</v>
+      </c>
+      <c r="AM6" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15">
+        <v>1</v>
+      </c>
+      <c r="C7" s="13">
         <v>108.35375293693379</v>
       </c>
-      <c r="C10" s="13">
+      <c r="D7" s="13">
         <v>91.656841509162803</v>
       </c>
-      <c r="D10" s="13">
+      <c r="E7" s="13">
         <v>5.1680967374247251</v>
       </c>
-      <c r="E10" s="25">
+      <c r="F7" s="24">
         <f t="shared" si="0"/>
         <v>9.3485175462710707E-2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="G7" s="13">
         <v>4.0217295879062025</v>
       </c>
-      <c r="G10" s="13">
+      <c r="H7" s="13">
         <v>3.0213869075855802</v>
       </c>
-      <c r="H10" s="13">
+      <c r="I7" s="13">
         <v>123742.74754479789</v>
       </c>
-      <c r="I10" s="13">
+      <c r="J7" s="13">
         <v>3196</v>
       </c>
-      <c r="J10" s="13">
+      <c r="K7" s="13">
         <v>114</v>
       </c>
-      <c r="K10" s="13">
+      <c r="L7" s="13">
         <v>11.2631578947368</v>
       </c>
-      <c r="L10" s="16">
+      <c r="M7" s="15">
         <v>1</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="15">
+      <c r="N7" s="16"/>
+      <c r="O7" s="14">
         <v>0.95</v>
       </c>
-      <c r="O10" s="13">
-        <f t="shared" si="1"/>
+      <c r="P7" s="13">
+        <f t="shared" si="8"/>
         <v>0.19695564740577529</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>98.224283331581319</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="10"/>
+        <v>118.48322254228626</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="11"/>
+        <v>20.258939210704938</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="12"/>
+        <v>10.129469605352462</v>
+      </c>
+      <c r="U7" s="31">
+        <f t="shared" si="23"/>
+        <v>8.3061266970959086E-2</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="25"/>
+        <v>99.353752936933788</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="26"/>
+        <v>117.35375293693379</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z7">
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <v>7.7109999999999998E-2</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="28"/>
+        <v>4.2628356576362059</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" ref="AC7:AC34" si="33">C7-1.96*AB7</f>
+        <v>99.99859504796683</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="30"/>
+        <v>116.70891082590074</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="31"/>
+        <v>8.3551578889669642</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="32"/>
+        <v>16.710315777933914</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="18"/>
+        <v>8.3061266970959086E-2</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="20"/>
+        <v>99.353752936933788</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="21"/>
+        <v>117.35375293693379</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AL7">
+        <v>9</v>
+      </c>
+      <c r="AM7" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13">
         <v>160.65541154390127</v>
       </c>
-      <c r="C11" s="13">
+      <c r="D8" s="13">
         <v>106.816451496106</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E8" s="13">
         <v>3.1725231162741849</v>
       </c>
-      <c r="E11" s="25">
+      <c r="F8" s="24">
         <f t="shared" si="0"/>
         <v>3.8704860596608104E-2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G8" s="13">
         <v>1.5366802550356693</v>
       </c>
-      <c r="G11" s="13">
+      <c r="H8" s="13">
         <v>1.8577855040475699</v>
       </c>
-      <c r="H11" s="13">
+      <c r="I8" s="13">
         <v>170464.44715573575</v>
       </c>
-      <c r="I11" s="13">
+      <c r="J8" s="13">
         <v>2862</v>
       </c>
-      <c r="J11" s="13">
+      <c r="K8" s="13">
         <v>194</v>
       </c>
-      <c r="K11" s="13">
+      <c r="L8" s="13">
         <v>11.5927835051546</v>
       </c>
-      <c r="L11" s="16">
+      <c r="M8" s="15">
         <v>1</v>
       </c>
-      <c r="M11" s="17"/>
-      <c r="N11" s="15">
+      <c r="N8" s="16"/>
+      <c r="O8" s="14">
         <v>0.95</v>
       </c>
-      <c r="O11" s="13">
-        <f t="shared" si="1"/>
+      <c r="P8" s="13">
+        <f t="shared" si="8"/>
         <v>8.0978290893055568E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="13">
+      <c r="Q8">
+        <f t="shared" si="9"/>
+        <v>154.43726623600386</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="10"/>
+        <v>166.87355685179867</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="11"/>
+        <v>12.436290615794803</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="12"/>
+        <v>6.2181453078974025</v>
+      </c>
+      <c r="U8" s="31">
+        <f t="shared" si="23"/>
+        <v>5.6020521895340125E-2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="25"/>
+        <v>151.65541154390127</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="26"/>
+        <v>169.65541154390127</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z8">
+        <v>9</v>
+      </c>
+      <c r="AA8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="28"/>
+        <v>4.8360557556582515</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="33"/>
+        <v>151.1767422628111</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="30"/>
+        <v>170.13408082499143</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="31"/>
+        <v>9.4786692810901734</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="32"/>
+        <v>18.957338562180325</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="18"/>
+        <v>7.4694029193786843E-2</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="20"/>
+        <v>148.65541154390127</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="21"/>
+        <v>172.65541154390127</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL8">
+        <v>12</v>
+      </c>
+      <c r="AM8" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13">
         <v>135.8519565919832</v>
       </c>
-      <c r="C12" s="13">
+      <c r="D9" s="13">
         <v>99.9173801369747</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E9" s="13">
         <v>3.1961979680487373</v>
       </c>
-      <c r="E12" s="25">
+      <c r="F9" s="24">
         <f t="shared" si="0"/>
         <v>4.6113049635276314E-2</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G9" s="13">
         <v>1.3784147589293367</v>
       </c>
-      <c r="G12" s="13">
+      <c r="H9" s="13">
         <v>2.48792674869321</v>
       </c>
-      <c r="H12" s="13">
+      <c r="I9" s="13">
         <v>131827.9451739931</v>
       </c>
-      <c r="I12" s="13">
+      <c r="J9" s="13">
         <v>3392</v>
       </c>
-      <c r="J12" s="13">
+      <c r="K9" s="13">
         <v>230</v>
       </c>
-      <c r="K12" s="13">
+      <c r="L9" s="13">
         <v>11.521739130434799</v>
       </c>
-      <c r="L12" s="16">
+      <c r="M9" s="15">
         <v>1</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="15">
+      <c r="N9" s="16"/>
+      <c r="O9" s="14">
         <v>0.95</v>
       </c>
-      <c r="O12" s="13">
-        <f t="shared" si="1"/>
+      <c r="P9" s="13">
+        <f t="shared" si="8"/>
         <v>0.141414525702247</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="13">
+      <c r="Q9">
+        <f t="shared" si="9"/>
+        <v>129.58740857460768</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="10"/>
+        <v>142.11650460935871</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="11"/>
+        <v>12.529096034751035</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="12"/>
+        <v>6.2645480173755255</v>
+      </c>
+      <c r="U9" s="31">
+        <f t="shared" si="23"/>
+        <v>6.6248585782467131E-2</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="25"/>
+        <v>126.8519565919832</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="26"/>
+        <v>144.8519565919832</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <v>9</v>
+      </c>
+      <c r="AA9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="28"/>
+        <v>5.6142900428319589</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="33"/>
+        <v>124.84794810803255</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="30"/>
+        <v>146.85596507593382</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="31"/>
+        <v>11.004008483950638</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="32"/>
+        <v>22.00801696790127</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="18"/>
+        <v>8.8331447709956171E-2</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="20"/>
+        <v>123.8519565919832</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="21"/>
+        <v>147.8519565919832</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL9">
+        <v>12</v>
+      </c>
+      <c r="AM9" s="13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13">
         <v>170.02823839044922</v>
       </c>
-      <c r="C13" s="13">
+      <c r="D10" s="13">
         <v>109.31893292156499</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E10" s="13">
         <v>2.3156246210782565</v>
       </c>
-      <c r="E13" s="25">
+      <c r="F10" s="24">
         <f t="shared" si="0"/>
         <v>2.6693355764181848E-2</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G10" s="13">
         <v>4.4443217208325612</v>
       </c>
-      <c r="G13" s="13">
+      <c r="H10" s="13">
         <v>1.7801539206403401</v>
       </c>
-      <c r="H13" s="13">
+      <c r="I10" s="13">
         <v>969455.93856103171</v>
       </c>
-      <c r="I13" s="13">
+      <c r="J10" s="13">
         <v>10112</v>
       </c>
-      <c r="J13" s="13">
+      <c r="K10" s="13">
         <v>349</v>
       </c>
-      <c r="K13" s="13">
+      <c r="L10" s="13">
         <v>11.458452722063001</v>
       </c>
-      <c r="L13" s="16">
+      <c r="M10" s="15">
         <v>1</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="15">
+      <c r="N10" s="16"/>
+      <c r="O10" s="14">
         <v>0.95</v>
       </c>
-      <c r="O13" s="13">
-        <f t="shared" si="1"/>
+      <c r="P10" s="13">
+        <f t="shared" si="8"/>
         <v>7.4595539261227292E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="Q10">
+        <f t="shared" si="9"/>
+        <v>165.48961413313583</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="10"/>
+        <v>174.5668626477626</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="11"/>
+        <v>9.0772485146267741</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="12"/>
+        <v>4.5386242573133826</v>
+      </c>
+      <c r="U10" s="31">
+        <f t="shared" si="23"/>
+        <v>5.2932383968671087E-2</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="25"/>
+        <v>161.02823839044922</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="26"/>
+        <v>179.02823839044922</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z10">
+        <v>9</v>
+      </c>
+      <c r="AA10">
+        <v>5.11E-2</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="28"/>
+        <v>4.4328790723224261</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="33"/>
+        <v>161.33979540869726</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="30"/>
+        <v>178.71668137220118</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="31"/>
+        <v>8.6884429817519546</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="32"/>
+        <v>17.376885963503923</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="18"/>
+        <v>7.0576511958228116E-2</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="20"/>
+        <v>158.02823839044922</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="21"/>
+        <v>182.02823839044922</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL10">
+        <v>12</v>
+      </c>
+      <c r="AM10" s="13">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
         <v>130.41171985672139</v>
       </c>
-      <c r="C14" s="13">
+      <c r="D11" s="13">
         <v>96.801966044481603</v>
       </c>
-      <c r="D14" s="13">
+      <c r="E11" s="13">
         <v>4.6940974733703023</v>
       </c>
-      <c r="E14" s="25">
+      <c r="F11" s="24">
         <f t="shared" si="0"/>
         <v>7.054911213435397E-2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="G11" s="13">
         <v>2.5539772130858656</v>
       </c>
-      <c r="G14" s="13">
+      <c r="H11" s="13">
         <v>1.63791500935625</v>
       </c>
-      <c r="H14" s="13">
+      <c r="I11" s="13">
         <v>106235.74605397743</v>
       </c>
-      <c r="I14" s="13">
+      <c r="J11" s="13">
         <v>3076</v>
       </c>
-      <c r="J14" s="13">
+      <c r="K11" s="13">
         <v>97</v>
       </c>
-      <c r="K14" s="13">
+      <c r="L11" s="13">
         <v>11.5670103092784</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M11" s="15">
         <v>1</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="15">
+      <c r="N11" s="16"/>
+      <c r="O11" s="14">
         <v>0.95</v>
       </c>
-      <c r="O14" s="13">
-        <f t="shared" si="1"/>
+      <c r="P11" s="13">
+        <f t="shared" si="8"/>
         <v>6.0368542348835083E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="13">
+      <c r="Q11">
+        <f t="shared" si="9"/>
+        <v>121.2112888089156</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="10"/>
+        <v>139.6121509045272</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="11"/>
+        <v>18.4008620956116</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="12"/>
+        <v>9.2004310478057931</v>
+      </c>
+      <c r="U11" s="31">
+        <f t="shared" si="23"/>
+        <v>6.9012202353346555E-2</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="25"/>
+        <v>121.41171985672139</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="26"/>
+        <v>139.41171985672139</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z11">
+        <v>9</v>
+      </c>
+      <c r="AA11">
+        <v>5.3039999999999997E-2</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="28"/>
+        <v>3.5291008271431132</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="33"/>
+        <v>123.49468223552088</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="30"/>
+        <v>137.3287574779219</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="31"/>
+        <v>6.9170376212005023</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="32"/>
+        <v>13.834075242401013</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="18"/>
+        <v>6.9012202353346555E-2</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="20"/>
+        <v>121.41171985672139</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="21"/>
+        <v>139.41171985672139</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AL11">
+        <v>9</v>
+      </c>
+      <c r="AM11" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="15">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13">
         <v>151.65646736318041</v>
       </c>
-      <c r="C15" s="13">
+      <c r="D12" s="13">
         <v>115.069938355614</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E12" s="13">
         <v>4.9239849840433614</v>
       </c>
-      <c r="E15" s="25">
+      <c r="F12" s="24">
         <f t="shared" si="0"/>
         <v>6.3637316208962999E-2</v>
       </c>
-      <c r="F15" s="13">
+      <c r="G12" s="13">
         <v>2.2773021218854539</v>
       </c>
-      <c r="G15" s="13">
+      <c r="H12" s="13">
         <v>3.1936886196654801</v>
       </c>
-      <c r="H15" s="13">
+      <c r="I12" s="13">
         <v>121704.90324270056</v>
       </c>
-      <c r="I15" s="13">
+      <c r="J12" s="13">
         <v>3194</v>
       </c>
-      <c r="J15" s="13">
+      <c r="K12" s="13">
         <v>211</v>
       </c>
-      <c r="K15" s="13">
+      <c r="L12" s="13">
         <v>11.459715639810399</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M12" s="15">
         <v>1</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="15">
+      <c r="N12" s="16"/>
+      <c r="O12" s="14">
         <v>0.95</v>
       </c>
-      <c r="O15" s="13">
-        <f t="shared" si="1"/>
+      <c r="P12" s="13">
+        <f t="shared" si="8"/>
         <v>0.20972736690050633</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="Q12">
+        <f t="shared" si="9"/>
+        <v>142.00545679445543</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="10"/>
+        <v>161.3074779319054</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>19.30202113744997</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="12"/>
+        <v>9.6510105687249883</v>
+      </c>
+      <c r="U12" s="31">
+        <f t="shared" si="23"/>
+        <v>5.934465015888301E-2</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="25"/>
+        <v>142.65646736318041</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="26"/>
+        <v>160.65646736318041</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z12">
+        <v>9</v>
+      </c>
+      <c r="AA12">
+        <v>0.10122</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="28"/>
+        <v>7.8319732788271033</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="33"/>
+        <v>136.30579973667929</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="30"/>
+        <v>167.00713498968153</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="31"/>
+        <v>15.350667626501123</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="32"/>
+        <v>30.701335253002242</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="18"/>
+        <v>7.9126200211844008E-2</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="20"/>
+        <v>139.65646736318041</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="21"/>
+        <v>163.65646736318041</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL12">
+        <v>12</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="15">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13">
         <v>155.42584389871851</v>
       </c>
-      <c r="C16" s="13">
+      <c r="D13" s="13">
         <v>103.116985429827</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E13" s="13">
         <v>3.7459431504735083</v>
       </c>
-      <c r="E16" s="25">
+      <c r="F13" s="24">
         <f t="shared" si="0"/>
         <v>4.723827383374183E-2</v>
       </c>
-      <c r="F16" s="13">
+      <c r="G13" s="13">
         <v>2.7652443306836214</v>
       </c>
-      <c r="G16" s="13">
+      <c r="H13" s="13">
         <v>1.51777977097676</v>
       </c>
-      <c r="H16" s="13">
+      <c r="I13" s="13">
         <v>204992.9265034713</v>
       </c>
-      <c r="I16" s="13">
+      <c r="J13" s="13">
         <v>5459</v>
       </c>
-      <c r="J16" s="13">
+      <c r="K13" s="13">
         <v>120</v>
       </c>
-      <c r="K16" s="13">
+      <c r="L13" s="13">
         <v>11.7</v>
       </c>
-      <c r="L16" s="16">
+      <c r="M13" s="15">
         <v>1</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="15">
+      <c r="N13" s="16"/>
+      <c r="O13" s="14">
         <v>0.95</v>
       </c>
-      <c r="O16" s="13">
-        <f t="shared" si="1"/>
+      <c r="P13" s="13">
+        <f t="shared" si="8"/>
         <v>4.8390632801566358E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="Q13">
+        <f t="shared" si="9"/>
+        <v>148.08379532379044</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="10"/>
+        <v>162.76789247364658</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="11"/>
+        <v>14.684097149856143</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="12"/>
+        <v>7.3420485749280759</v>
+      </c>
+      <c r="U13" s="31">
+        <f t="shared" si="23"/>
+        <v>5.790542791496598E-2</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="25"/>
+        <v>146.42584389871851</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="26"/>
+        <v>164.42584389871851</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z13">
+        <v>9</v>
+      </c>
+      <c r="AA13">
+        <v>6.3E-2</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="28"/>
+        <v>4.9958306967445241</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="33"/>
+        <v>145.63401573309923</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="30"/>
+        <v>165.21767206433779</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="31"/>
+        <v>9.7918281656192665</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="32"/>
+        <v>19.583656331238558</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="18"/>
+        <v>5.790542791496598E-2</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="20"/>
+        <v>146.42584389871851</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="21"/>
+        <v>164.42584389871851</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AL13">
+        <v>9</v>
+      </c>
+      <c r="AM13" s="13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+      <c r="C14" s="13">
         <v>154.10805974030765</v>
       </c>
-      <c r="C17" s="13">
+      <c r="D14" s="13">
         <v>98.963121814560097</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E14" s="13">
         <v>2.7943085965559997</v>
       </c>
-      <c r="E17" s="25">
+      <c r="F14" s="24">
         <f t="shared" si="0"/>
         <v>3.5538990358317167E-2</v>
       </c>
-      <c r="F17" s="13">
+      <c r="G14" s="13">
         <v>2.8407634352310702</v>
       </c>
-      <c r="G17" s="13">
+      <c r="H14" s="13">
         <v>2.36963645819757</v>
       </c>
-      <c r="H17" s="13">
+      <c r="I14" s="13">
         <v>348723.24098512874</v>
       </c>
-      <c r="I17" s="13">
+      <c r="J14" s="13">
         <v>9198</v>
       </c>
-      <c r="J17" s="13">
+      <c r="K14" s="13">
         <v>289</v>
       </c>
-      <c r="K17" s="13">
+      <c r="L14" s="13">
         <v>11.6539792387543</v>
       </c>
-      <c r="L17" s="16">
+      <c r="M14" s="15">
         <v>1</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="15">
+      <c r="N14" s="16"/>
+      <c r="O14" s="14">
         <v>0.95</v>
       </c>
-      <c r="O17" s="13">
-        <f t="shared" si="1"/>
+      <c r="P14" s="13">
+        <f t="shared" si="8"/>
         <v>0.12855632881425744</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="Q14">
+        <f t="shared" si="9"/>
+        <v>148.63121489105788</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="10"/>
+        <v>159.58490458955742</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="11"/>
+        <v>10.953689698499545</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="12"/>
+        <v>5.4768448492497592</v>
+      </c>
+      <c r="U14" s="31">
+        <f t="shared" si="23"/>
+        <v>5.8400579535983932E-2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="25"/>
+        <v>145.10805974030765</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="26"/>
+        <v>163.10805974030765</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z14">
+        <v>9</v>
+      </c>
+      <c r="AA14">
+        <v>8.2360000000000003E-2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="28"/>
+        <v>6.4756835715366021</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="33"/>
+        <v>141.41571994009593</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="30"/>
+        <v>166.80039954051938</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="31"/>
+        <v>12.692339800211739</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="32"/>
+        <v>25.384679600423453</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="18"/>
+        <v>7.7867439381311909E-2</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="20"/>
+        <v>142.10805974030765</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="21"/>
+        <v>166.10805974030765</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL14">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="13">
         <v>139.42668736301209</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D15" s="13">
         <v>115.74791404207301</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E15" s="13">
         <v>11.602747449129138</v>
       </c>
-      <c r="E18" s="25">
+      <c r="F15" s="24">
         <f t="shared" si="0"/>
         <v>0.16310639971731894</v>
       </c>
-      <c r="F18" s="13">
+      <c r="G15" s="13">
         <v>2.9943396485954112</v>
       </c>
-      <c r="G18" s="13">
+      <c r="H15" s="13">
         <v>8.6762514171935692</v>
       </c>
-      <c r="H18" s="13">
+      <c r="I15" s="13">
         <v>29136.672268961247</v>
       </c>
-      <c r="I18" s="13">
+      <c r="J15" s="13">
         <v>975</v>
       </c>
-      <c r="J18" s="13">
+      <c r="K15" s="13">
         <v>74</v>
       </c>
-      <c r="K18" s="13">
+      <c r="L15" s="13">
         <v>10.8243243243243</v>
       </c>
-      <c r="L18" s="16">
+      <c r="M15" s="15">
         <v>1</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="15">
+      <c r="N15" s="16"/>
+      <c r="O15" s="14">
         <v>0.95</v>
       </c>
-      <c r="O18" s="13">
-        <f t="shared" si="1"/>
+      <c r="P15" s="13">
+        <f t="shared" si="8"/>
         <v>0.78135158854515208</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="13">
+      <c r="Q15">
+        <f t="shared" si="9"/>
+        <v>116.68530236271899</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="10"/>
+        <v>162.16807236330521</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="11"/>
+        <v>45.482770000586228</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="12"/>
+        <v>22.741385000293111</v>
+      </c>
+      <c r="U15" s="31">
+        <f t="shared" si="23"/>
+        <v>0.1219278770909812</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="24"/>
+        <v>8.6734693877551017</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="25"/>
+        <v>122.42668736301209</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="26"/>
+        <v>156.42668736301209</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+      <c r="Z15">
+        <v>17</v>
+      </c>
+      <c r="AA15">
+        <v>0.13022</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="28"/>
+        <v>9.2633383818425692</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="33"/>
+        <v>121.27054413460066</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="30"/>
+        <v>157.58283059142352</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="31"/>
+        <v>18.156143228411434</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="32"/>
+        <v>36.312286456822861</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="18"/>
+        <v>0.1004111928984551</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="19"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="20"/>
+        <v>125.42668736301209</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="21"/>
+        <v>153.42668736301209</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="AL15">
+        <v>14</v>
+      </c>
+      <c r="AM15" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="15">
+        <v>2</v>
+      </c>
+      <c r="C16" s="13">
         <v>111.380377265745</v>
       </c>
-      <c r="C19" s="13">
+      <c r="D16" s="13">
         <v>93.450303710277396</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E16" s="13">
         <v>7.0288486774115482</v>
       </c>
-      <c r="E19" s="25">
+      <c r="F16" s="24">
         <f t="shared" si="0"/>
         <v>0.12368914297046116</v>
       </c>
-      <c r="F19" s="13">
+      <c r="G16" s="13">
         <v>1.2083422901263599</v>
       </c>
-      <c r="G19" s="13">
+      <c r="H16" s="13">
         <v>1.8017214307366201</v>
       </c>
-      <c r="H19" s="13">
+      <c r="I16" s="13">
         <v>20884.10577375918</v>
       </c>
-      <c r="I19" s="13">
+      <c r="J16" s="13">
         <v>701</v>
       </c>
-      <c r="J19" s="13">
+      <c r="K16" s="13">
         <v>71</v>
       </c>
-      <c r="K19" s="13">
+      <c r="L16" s="13">
         <v>11.253521126760599</v>
       </c>
-      <c r="L19" s="16">
+      <c r="M16" s="15">
         <v>1</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="N19" s="15">
+      <c r="N16" s="16"/>
+      <c r="O16" s="14">
         <v>0.95</v>
       </c>
-      <c r="O19" s="13">
-        <f t="shared" si="1"/>
+      <c r="P16" s="13">
+        <f t="shared" si="8"/>
         <v>7.8189864810851412E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="Q16">
+        <f t="shared" si="9"/>
+        <v>97.603833858018362</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="10"/>
+        <v>125.15692067347163</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="11"/>
+        <v>27.55308681545327</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="12"/>
+        <v>13.776543407726635</v>
+      </c>
+      <c r="U16" s="31">
+        <f t="shared" si="23"/>
+        <v>0.15263011687812217</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="24"/>
+        <v>8.6734693877551017</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="25"/>
+        <v>94.380377265744997</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="26"/>
+        <v>128.38037726574498</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="27"/>
+        <v>33.999999999999986</v>
+      </c>
+      <c r="Z16">
+        <v>17</v>
+      </c>
+      <c r="AA16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="28"/>
+        <v>3.2959499394965359</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="33"/>
+        <v>104.92031538433179</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="30"/>
+        <v>117.84043914715821</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="31"/>
+        <v>6.4600618814132105</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="32"/>
+        <v>12.920123762826421</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="18"/>
+        <v>0.12569539037021826</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="19"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="20"/>
+        <v>97.380377265744997</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="21"/>
+        <v>125.380377265745</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="AL16">
+        <v>14</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="15">
+        <v>2</v>
+      </c>
+      <c r="C17" s="13">
         <v>132.99765619994747</v>
       </c>
-      <c r="C20" s="13">
+      <c r="D17" s="13">
         <v>110.29973524351</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E17" s="13">
         <v>8.8476022772917275</v>
       </c>
-      <c r="E20" s="25">
+      <c r="F17" s="24">
         <f t="shared" si="0"/>
         <v>0.13038801554082299</v>
       </c>
-      <c r="F20" s="13">
+      <c r="G17" s="13">
         <v>1.3576867425409984</v>
       </c>
-      <c r="G20" s="13">
+      <c r="H17" s="13">
         <v>3.8429756241553301</v>
       </c>
-      <c r="H20" s="13">
+      <c r="I17" s="13">
         <v>20631.599863060077</v>
       </c>
-      <c r="I20" s="13">
+      <c r="J17" s="13">
         <v>617</v>
       </c>
-      <c r="J20" s="13">
+      <c r="K17" s="13">
         <v>71</v>
       </c>
-      <c r="K20" s="13">
+      <c r="L17" s="13">
         <v>11.309859154929599</v>
       </c>
-      <c r="L20" s="16">
+      <c r="M17" s="15">
         <v>1</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="15">
+      <c r="N17" s="16"/>
+      <c r="O17" s="14">
         <v>0.95</v>
       </c>
-      <c r="O20" s="13">
-        <f t="shared" si="1"/>
+      <c r="P17" s="13">
+        <f t="shared" si="8"/>
         <v>0.27575310015714211</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="Q17">
+        <f t="shared" si="9"/>
+        <v>115.65635573645568</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="10"/>
+        <v>150.33895666343926</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="11"/>
+        <v>34.682600926983582</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="12"/>
+        <v>17.341300463491784</v>
+      </c>
+      <c r="U17" s="31">
+        <f t="shared" si="23"/>
+        <v>0.12782180141913443</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="24"/>
+        <v>8.6734693877551017</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="25"/>
+        <v>115.99765619994747</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="26"/>
+        <v>149.99765619994747</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="27"/>
         <v>34</v>
       </c>
-      <c r="B21" s="13">
+      <c r="Z17">
+        <v>17</v>
+      </c>
+      <c r="AA17">
+        <v>8.301E-2</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="28"/>
+        <v>5.6327221638559388</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="33"/>
+        <v>121.95752075878983</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="30"/>
+        <v>144.03779164110512</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="31"/>
+        <v>11.04013544115764</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="32"/>
+        <v>22.08027088231529</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="18"/>
+        <v>0.10526501293340483</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="19"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="20"/>
+        <v>118.99765619994747</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="21"/>
+        <v>146.99765619994747</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="AL17">
+        <v>14</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="15">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
         <v>143.08115128174455</v>
       </c>
-      <c r="C21" s="13">
+      <c r="D18" s="13">
         <v>102.494141163099</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E18" s="13">
         <v>2.376518028372046</v>
       </c>
-      <c r="E21" s="25">
+      <c r="F18" s="24">
         <f t="shared" si="0"/>
         <v>3.255477953512604E-2</v>
       </c>
-      <c r="F21" s="13">
+      <c r="G18" s="13">
         <v>4.0759960743740651</v>
       </c>
-      <c r="G21" s="13">
+      <c r="H18" s="13">
         <v>1.77521704837872</v>
       </c>
-      <c r="H21" s="13">
+      <c r="I18" s="13">
         <v>741985.01586368529</v>
       </c>
-      <c r="I21" s="13">
+      <c r="J18" s="13">
         <v>7358</v>
       </c>
-      <c r="J21" s="13">
+      <c r="K18" s="13">
         <v>296</v>
       </c>
-      <c r="K21" s="13">
+      <c r="L18" s="13">
         <v>11.1824324324324</v>
       </c>
-      <c r="L21" s="16">
+      <c r="M18" s="15">
         <v>1</v>
       </c>
-      <c r="M21" s="17"/>
-      <c r="N21" s="15">
+      <c r="N18" s="16"/>
+      <c r="O18" s="14">
         <v>0.95</v>
       </c>
-      <c r="O21" s="13">
-        <f t="shared" si="1"/>
+      <c r="P18" s="13">
+        <f t="shared" si="8"/>
         <v>7.6132795726642943E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="13">
+      <c r="Q18">
+        <f t="shared" si="9"/>
+        <v>138.42317594613533</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="10"/>
+        <v>147.73912661735378</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="11"/>
+        <v>9.3159506712184452</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="12"/>
+        <v>4.6579753356092102</v>
+      </c>
+      <c r="U18" s="31">
+        <f t="shared" si="23"/>
+        <v>6.290136694719406E-2</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="25"/>
+        <v>134.08115128174455</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="26"/>
+        <v>152.08115128174455</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z18">
+        <v>9</v>
+      </c>
+      <c r="AA18">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="28"/>
+        <v>5.6210452289256789</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" si="33"/>
+        <v>132.06390263305022</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="30"/>
+        <v>154.09839993043889</v>
+      </c>
+      <c r="AE18">
+        <f t="shared" si="31"/>
+        <v>11.017248648694331</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="32"/>
+        <v>22.034497297388668</v>
+      </c>
+      <c r="AG18">
+        <f t="shared" si="18"/>
+        <v>8.3868489262925408E-2</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" si="20"/>
+        <v>131.08115128174455</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="21"/>
+        <v>155.08115128174455</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL18">
+        <v>12</v>
+      </c>
+      <c r="AM18" s="13">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13">
         <v>135.70373454893286</v>
       </c>
-      <c r="C22" s="13">
+      <c r="D19" s="13">
         <v>101.20678020470901</v>
       </c>
-      <c r="D22" s="13">
+      <c r="E19" s="13">
         <v>3.70982318741201</v>
       </c>
-      <c r="E22" s="25">
+      <c r="F19" s="24">
         <f t="shared" si="0"/>
         <v>5.3581822722097806E-2</v>
       </c>
-      <c r="F22" s="13">
+      <c r="G19" s="13">
         <v>1.9768358933169996</v>
       </c>
-      <c r="G22" s="13">
+      <c r="H19" s="13">
         <v>3.24485007272949</v>
       </c>
-      <c r="H22" s="13">
+      <c r="I19" s="13">
         <v>143975.90486676374</v>
       </c>
-      <c r="I22" s="13">
+      <c r="J19" s="13">
         <v>2525</v>
       </c>
-      <c r="J22" s="13">
+      <c r="K19" s="13">
         <v>224</v>
       </c>
-      <c r="K22" s="13">
+      <c r="L19" s="13">
         <v>11.3839285714286</v>
       </c>
-      <c r="L22" s="16">
+      <c r="M19" s="15">
         <v>1</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="15">
+      <c r="N19" s="16"/>
+      <c r="O19" s="14">
         <v>0.95</v>
       </c>
-      <c r="O22" s="13">
-        <f t="shared" si="1"/>
+      <c r="P19" s="13">
+        <f t="shared" si="8"/>
         <v>0.21618504569707842</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="Q19">
+        <f t="shared" si="9"/>
+        <v>128.4324811016053</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="10"/>
+        <v>142.97498799626041</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="11"/>
+        <v>14.542506894655105</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="12"/>
+        <v>7.2712534473275392</v>
+      </c>
+      <c r="U19" s="31">
+        <f t="shared" si="23"/>
+        <v>6.6320945624047847E-2</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="25"/>
+        <v>126.70373454893286</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="26"/>
+        <v>144.70373454893286</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z19">
+        <v>9</v>
+      </c>
+      <c r="AA19">
+        <v>0.11355999999999999</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="28"/>
+        <v>7.8625082119269463</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" si="33"/>
+        <v>120.29321845355604</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="30"/>
+        <v>151.11425064430966</v>
+      </c>
+      <c r="AE19">
+        <f t="shared" si="31"/>
+        <v>15.410516095376815</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="32"/>
+        <v>30.821032190753627</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" si="18"/>
+        <v>8.8427927498730477E-2</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" si="20"/>
+        <v>123.70373454893286</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="21"/>
+        <v>147.70373454893286</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL19">
+        <v>12</v>
+      </c>
+      <c r="AM19" s="13">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="15">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13">
         <v>163.91059707362604</v>
       </c>
-      <c r="C23" s="13">
+      <c r="D20" s="13">
         <v>120.940265606395</v>
       </c>
-      <c r="D23" s="13">
+      <c r="E20" s="13">
         <v>9.9596829686472379</v>
       </c>
-      <c r="E23" s="25">
+      <c r="F20" s="24">
         <f t="shared" si="0"/>
         <v>0.11909528100724369</v>
       </c>
-      <c r="F23" s="13">
+      <c r="G20" s="13">
         <v>1.4993182947450951</v>
       </c>
-      <c r="G23" s="13">
+      <c r="H20" s="13">
         <v>6.1168223566898003</v>
       </c>
-      <c r="H23" s="13">
+      <c r="I20" s="13">
         <v>21616.672712427091</v>
       </c>
-      <c r="I23" s="13">
+      <c r="J20" s="13">
         <v>669</v>
       </c>
-      <c r="J23" s="13">
+      <c r="K20" s="13">
         <v>71</v>
       </c>
-      <c r="K23" s="13">
+      <c r="L20" s="13">
         <v>11.492957746478901</v>
       </c>
-      <c r="L23" s="16">
+      <c r="M20" s="15">
         <v>1</v>
       </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="15">
+      <c r="N20" s="16"/>
+      <c r="O20" s="14">
         <v>0.95</v>
       </c>
-      <c r="O23" s="13">
-        <f t="shared" si="1"/>
+      <c r="P20" s="13">
+        <f t="shared" si="8"/>
         <v>0.48764347291942939</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="13">
+      <c r="Q20">
+        <f t="shared" si="9"/>
+        <v>144.38961845507745</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="10"/>
+        <v>183.43157569217462</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="11"/>
+        <v>39.041957237097165</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="12"/>
+        <v>19.520978618548586</v>
+      </c>
+      <c r="U20" s="31">
+        <f t="shared" si="23"/>
+        <v>0.10371507580052235</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="24"/>
+        <v>8.6734693877551017</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="25"/>
+        <v>146.91059707362604</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="26"/>
+        <v>180.91059707362604</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+      <c r="Z20">
+        <v>17</v>
+      </c>
+      <c r="AA20">
+        <v>9.3310000000000004E-2</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="28"/>
+        <v>7.8033152106836967</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="33"/>
+        <v>148.61609926068598</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="30"/>
+        <v>179.20509488656609</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="31"/>
+        <v>15.294497812940046</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="32"/>
+        <v>30.588995625880102</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="18"/>
+        <v>8.5412415365136052E-2</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="19"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="20"/>
+        <v>149.91059707362604</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="21"/>
+        <v>177.91059707362604</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="AL20">
+        <v>14</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
         <v>234.23251565755112</v>
       </c>
-      <c r="C24" s="13">
+      <c r="D21" s="13">
         <v>187.864475405848</v>
       </c>
-      <c r="D24" s="13">
+      <c r="E21" s="13">
         <v>9.522314028904562</v>
       </c>
-      <c r="E24" s="25">
+      <c r="F21" s="24">
         <f t="shared" si="0"/>
         <v>7.9680378466068291E-2</v>
       </c>
-      <c r="F24" s="13">
+      <c r="G21" s="13">
         <v>0.22277428085546752</v>
       </c>
-      <c r="G24" s="13">
+      <c r="H21" s="13">
         <v>1.4433568121456499</v>
       </c>
-      <c r="H24" s="13">
+      <c r="I21" s="13">
         <v>8474.3844079852279</v>
       </c>
-      <c r="I24" s="13">
+      <c r="J21" s="13">
         <v>348</v>
       </c>
-      <c r="J24" s="13">
+      <c r="K21" s="13">
         <v>52</v>
       </c>
-      <c r="K24" s="13">
+      <c r="L21" s="13">
         <v>11.3269230769231</v>
       </c>
-      <c r="L24" s="16">
+      <c r="M21" s="15">
         <v>1</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="15">
+      <c r="N21" s="16"/>
+      <c r="O21" s="14">
         <v>0.95</v>
       </c>
-      <c r="O24" s="13">
-        <f t="shared" si="1"/>
+      <c r="P21" s="13">
+        <f t="shared" si="8"/>
         <v>4.2932130785053528E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="13">
+      <c r="Q21">
+        <f t="shared" si="9"/>
+        <v>215.56878016089817</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="10"/>
+        <v>252.89625115420407</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="11"/>
+        <v>37.327470993305894</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="12"/>
+        <v>18.66373549665294</v>
+      </c>
+      <c r="U21" s="31">
+        <f t="shared" si="23"/>
+        <v>3.8423358835278171E-2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="25"/>
+        <v>225.23251565755112</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="26"/>
+        <v>243.23251565755112</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z21">
+        <v>9</v>
+      </c>
+      <c r="AA21">
+        <v>5.1549999999999999E-2</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" si="28"/>
+        <v>6.1605541745646732</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" si="33"/>
+        <v>222.15782947540436</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="30"/>
+        <v>246.30720183969788</v>
+      </c>
+      <c r="AE21">
+        <f t="shared" si="31"/>
+        <v>12.07468618214676</v>
+      </c>
+      <c r="AF21">
+        <f t="shared" si="32"/>
+        <v>24.149372364293527</v>
+      </c>
+      <c r="AG21">
+        <f t="shared" si="18"/>
+        <v>3.8423358835278171E-2</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" si="20"/>
+        <v>225.23251565755112</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="21"/>
+        <v>243.23251565755112</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AL21">
+        <v>9</v>
+      </c>
+      <c r="AM21" s="13">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15">
+        <v>2</v>
+      </c>
+      <c r="C22" s="13">
         <v>144.20105266184723</v>
       </c>
-      <c r="C25" s="13">
+      <c r="D22" s="13">
         <v>118.71137461712</v>
       </c>
-      <c r="D25" s="13">
+      <c r="E22" s="13">
         <v>6.9971176362237477</v>
       </c>
-      <c r="E25" s="25">
+      <c r="F22" s="24">
         <f t="shared" si="0"/>
         <v>9.510575903463632E-2</v>
       </c>
-      <c r="F25" s="13">
+      <c r="G22" s="13">
         <v>1.6298070117138299</v>
       </c>
-      <c r="G25" s="13">
+      <c r="H22" s="13">
         <v>3.38484197123391</v>
       </c>
-      <c r="H25" s="13">
+      <c r="I22" s="13">
         <v>45874.521906257054</v>
       </c>
-      <c r="I25" s="13">
+      <c r="J22" s="13">
         <v>1250</v>
       </c>
-      <c r="J25" s="13">
+      <c r="K22" s="13">
         <v>78</v>
       </c>
-      <c r="K25" s="13">
+      <c r="L22" s="13">
         <v>11.4230769230769</v>
       </c>
-      <c r="L25" s="16">
+      <c r="M22" s="15">
         <v>1</v>
       </c>
-      <c r="M25" s="17"/>
-      <c r="N25" s="15">
+      <c r="N22" s="16"/>
+      <c r="O22" s="14">
         <v>0.95</v>
       </c>
-      <c r="O25" s="13">
-        <f t="shared" si="1"/>
+      <c r="P22" s="13">
+        <f t="shared" si="8"/>
         <v>0.22880402676044942</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="Q22">
+        <f t="shared" si="9"/>
+        <v>130.48670209484868</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="10"/>
+        <v>157.91540322884578</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="11"/>
+        <v>27.428701133997095</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="12"/>
+        <v>13.714350566998545</v>
+      </c>
+      <c r="U22" s="31">
+        <f t="shared" si="23"/>
+        <v>0.11789095631545182</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="24"/>
+        <v>8.6734693877551017</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="25"/>
+        <v>127.20105266184723</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="26"/>
+        <v>161.20105266184723</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+      <c r="AA22">
+        <v>7.8880000000000006E-2</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="28"/>
+        <v>5.8033566499829137</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="33"/>
+        <v>132.82647362788072</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="30"/>
+        <v>155.57563169581374</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="31"/>
+        <v>11.37457903396651</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="32"/>
+        <v>22.749158067933024</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="18"/>
+        <v>9.7086669906842685E-2</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="19"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="20"/>
+        <v>130.20105266184723</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="21"/>
+        <v>158.20105266184723</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="AL22">
+        <v>14</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="15">
+        <v>2</v>
+      </c>
+      <c r="C23" s="13">
         <v>153.27810005951974</v>
       </c>
-      <c r="C26" s="13">
+      <c r="D23" s="13">
         <v>103.587140047159</v>
       </c>
-      <c r="D26" s="13">
+      <c r="E23" s="13">
         <v>7.3988274357368615</v>
       </c>
-      <c r="E26" s="25">
+      <c r="F23" s="24">
         <f t="shared" si="0"/>
         <v>9.4610396191060972E-2</v>
       </c>
-      <c r="F26" s="13">
+      <c r="G23" s="13">
         <v>1.754305970271067</v>
       </c>
-      <c r="G26" s="13">
+      <c r="H23" s="13">
         <v>4.2725274504247297</v>
       </c>
-      <c r="H26" s="13">
+      <c r="I23" s="13">
         <v>33622.356460598465</v>
       </c>
-      <c r="I26" s="13">
+      <c r="J23" s="13">
         <v>982</v>
       </c>
-      <c r="J26" s="13">
+      <c r="K23" s="13">
         <v>72</v>
       </c>
-      <c r="K26" s="13">
+      <c r="L23" s="13">
         <v>11.1805555555556</v>
       </c>
-      <c r="L26" s="16">
+      <c r="M23" s="15">
         <v>1</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="15">
+      <c r="N23" s="16"/>
+      <c r="O23" s="14">
         <v>0.95</v>
       </c>
-      <c r="O26" s="13">
-        <f t="shared" si="1"/>
+      <c r="P23" s="13">
+        <f t="shared" si="8"/>
         <v>0.32144880822725719</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="13">
+      <c r="Q23">
+        <f t="shared" si="9"/>
+        <v>138.77639828547549</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="10"/>
+        <v>167.77980183356399</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="11"/>
+        <v>29.0034035480885</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="12"/>
+        <v>14.501701774044248</v>
+      </c>
+      <c r="U23" s="31">
+        <f t="shared" si="23"/>
+        <v>0.11090951671111982</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="24"/>
+        <v>8.6734693877551017</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="25"/>
+        <v>136.27810005951974</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="26"/>
+        <v>170.27810005951974</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+      <c r="Z23">
+        <v>17</v>
+      </c>
+      <c r="AA23">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="28"/>
+        <v>5.708827196094358</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="33"/>
+        <v>142.08879875517479</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="30"/>
+        <v>164.4674013638647</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="31"/>
+        <v>11.189301304344941</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="32"/>
+        <v>22.378602608689903</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="18"/>
+        <v>9.1337249056216319E-2</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="19"/>
+        <v>7.1428571428571432</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="20"/>
+        <v>139.27810005951974</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="21"/>
+        <v>167.27810005951974</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="22"/>
+        <v>28</v>
+      </c>
+      <c r="AL23">
+        <v>14</v>
+      </c>
+      <c r="AM23" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="15">
+        <v>1</v>
+      </c>
+      <c r="C24" s="13">
         <v>136.79963901706196</v>
       </c>
-      <c r="C27" s="13">
+      <c r="D24" s="13">
         <v>94.951346739441803</v>
       </c>
-      <c r="D27" s="13">
+      <c r="E24" s="13">
         <v>2.9472582926784363</v>
       </c>
-      <c r="E27" s="25">
+      <c r="F24" s="24">
         <f t="shared" si="0"/>
         <v>4.2226911526639779E-2</v>
       </c>
-      <c r="F27" s="13">
+      <c r="G24" s="13">
         <v>0.96449678734582034</v>
       </c>
-      <c r="G27" s="13">
+      <c r="H24" s="13">
         <v>1.6823124389997399</v>
       </c>
-      <c r="H27" s="13">
+      <c r="I24" s="13">
         <v>97945.538084830114</v>
       </c>
-      <c r="I27" s="13">
+      <c r="J24" s="13">
         <v>3133</v>
       </c>
-      <c r="J27" s="13">
+      <c r="K24" s="13">
         <v>145</v>
       </c>
-      <c r="K27" s="13">
+      <c r="L24" s="13">
         <v>11.579310344827601</v>
       </c>
-      <c r="L27" s="16">
+      <c r="M24" s="15">
         <v>1</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="15">
+      <c r="N24" s="16"/>
+      <c r="O24" s="14">
         <v>0.95</v>
       </c>
-      <c r="O27" s="13">
-        <f t="shared" si="1"/>
+      <c r="P24" s="13">
+        <f t="shared" si="8"/>
         <v>6.4494982825920574E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="13">
+      <c r="Q24">
+        <f t="shared" si="9"/>
+        <v>131.02301276341223</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="10"/>
+        <v>142.5762652707117</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="11"/>
+        <v>11.553252507299476</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="12"/>
+        <v>5.7766262536497353</v>
+      </c>
+      <c r="U24" s="31">
+        <f t="shared" si="23"/>
+        <v>6.5789647287574346E-2</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="25"/>
+        <v>127.79963901706196</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="26"/>
+        <v>145.79963901706196</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>9</v>
+      </c>
+      <c r="AA24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="28"/>
+        <v>4.8857013934664986</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="33"/>
+        <v>127.22366428586763</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="30"/>
+        <v>146.37561374825631</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="31"/>
+        <v>9.5759747311943375</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="32"/>
+        <v>19.151949462388686</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="18"/>
+        <v>8.771952971676579E-2</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="19"/>
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="20"/>
+        <v>124.79963901706196</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="21"/>
+        <v>148.79963901706196</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="22"/>
+        <v>24</v>
+      </c>
+      <c r="AL24">
+        <v>12</v>
+      </c>
+      <c r="AM24" s="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="15">
+        <v>1</v>
+      </c>
+      <c r="C25" s="13">
         <v>180.86295770757022</v>
       </c>
-      <c r="C28" s="13">
+      <c r="D25" s="13">
         <v>112.041769366823</v>
       </c>
-      <c r="D28" s="13">
+      <c r="E25" s="13">
         <v>5.5651678438119045</v>
       </c>
-      <c r="E28" s="25">
+      <c r="F25" s="24">
         <f t="shared" si="0"/>
         <v>6.0309358600159492E-2</v>
       </c>
-      <c r="F28" s="13">
+      <c r="G25" s="13">
         <v>1.8307697386759527</v>
       </c>
-      <c r="G28" s="13">
+      <c r="H25" s="13">
         <v>1.7672206737018199</v>
       </c>
-      <c r="H28" s="13">
+      <c r="I25" s="13">
         <v>72548.978712487908</v>
       </c>
-      <c r="I28" s="13">
+      <c r="J25" s="13">
         <v>2025</v>
       </c>
-      <c r="J28" s="13">
+      <c r="K25" s="13">
         <v>65</v>
       </c>
-      <c r="K28" s="13">
+      <c r="L25" s="13">
         <v>11.4769230769231</v>
       </c>
-      <c r="L28" s="16">
+      <c r="M25" s="15">
         <v>1</v>
       </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="15">
+      <c r="N25" s="16"/>
+      <c r="O25" s="14">
         <v>0.95</v>
       </c>
-      <c r="O28" s="13">
-        <f t="shared" si="1"/>
+      <c r="P25" s="13">
+        <f t="shared" si="8"/>
         <v>7.3229579721906288E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="13">
+      <c r="Q25">
+        <f t="shared" si="9"/>
+        <v>169.95522873369887</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="10"/>
+        <v>191.77068668144156</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="11"/>
+        <v>21.815457947742686</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="12"/>
+        <v>10.907728973871333</v>
+      </c>
+      <c r="U25" s="31">
+        <f t="shared" si="23"/>
+        <v>4.9761433264581052E-2</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="24"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="25"/>
+        <v>171.86295770757022</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="26"/>
+        <v>189.86295770757022</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="27"/>
+        <v>18</v>
+      </c>
+      <c r="Z25">
+        <v>9</v>
+      </c>
+      <c r="AA25">
+        <v>4.6550000000000001E-2</v>
+      </c>
+      <c r="AB25">
+        <f t="shared" si="28"/>
+        <v>4.2954952455547932</v>
+      </c>
+      <c r="AC25">
+        <f t="shared" si="33"/>
+        <v>172.44378702628282</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="30"/>
+        <v>189.28212838885761</v>
+      </c>
+      <c r="AE25">
+        <f t="shared" si="31"/>
+        <v>8.4191706812873939</v>
+      </c>
+      <c r="AF25">
+        <f t="shared" si="32"/>
+        <v>16.838341362574795</v>
+      </c>
+      <c r="AG25">
+        <f t="shared" si="18"/>
+        <v>4.9761433264581052E-2</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="19"/>
+        <v>4.591836734693878</v>
+      </c>
+      <c r="AI25">
+        <f t="shared" si="20"/>
+        <v>171.86295770757022</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="21"/>
+        <v>189.86295770757022</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="22"/>
+        <v>18</v>
+      </c>
+      <c r="AL25">
+        <v>9</v>
+      </c>
+      <c r="AM25" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="15">
+        <v>3</v>
+      </c>
+      <c r="C26" s="13">
         <v>146.67434021797115</v>
       </c>
-      <c r="C29" s="18">
+      <c r="D26" s="17">
         <v>104.79225975247201</v>
       </c>
-      <c r="D29" s="13">
+      <c r="E26" s="13">
         <v>3.0478636348909895</v>
       </c>
-      <c r="E29" s="25">
+      <c r="F26" s="24">
         <f t="shared" si="0"/>
         <v>4.0728410405724148E-2</v>
       </c>
-      <c r="F29" s="13">
+      <c r="G26" s="13">
         <v>4.2332452120406137</v>
       </c>
-      <c r="G29" s="13">
+      <c r="H26" s="13">
         <v>1.6669813066407799</v>
       </c>
-      <c r="H29" s="13">
+      <c r="I26" s="13">
         <v>479040.53696815856</v>
       </c>
-      <c r="I29" s="13">
+      <c r="J26" s="13">
         <v>13811</v>
       </c>
-      <c r="J29" s="13">
+      <c r="K26" s="13">
         <v>178</v>
       </c>
-      <c r="K29" s="13">
+      <c r="L26" s="13">
         <v>11.0280898876404</v>
       </c>
-      <c r="L29" s="16">
+      <c r="M26" s="15">
         <v>1</v>
       </c>
-      <c r="M29" s="17"/>
-      <c r="N29" s="15">
+      <c r="N26" s="16"/>
+      <c r="O26" s="14">
         <v>0.95</v>
       </c>
-      <c r="O29" s="13">
-        <f t="shared" si="1"/>
+      <c r="P26" s="13">
+        <f t="shared" si="8"/>
         <v>6.6511301166419845E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="13">
+      <c r="Q26">
+        <f t="shared" si="9"/>
+        <v>140.70052749358481</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="10"/>
+        <v>152.64815294235748</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="11"/>
+        <v>11.947625448772669</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="12"/>
+        <v>5.973812724386339</v>
+      </c>
+      <c r="U26" s="31">
+        <f t="shared" si="23"/>
+        <v>4.090695067101352E-2</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="25"/>
+        <v>140.67434021797115</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="26"/>
+        <v>152.67434021797115</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z26">
+        <v>6</v>
+      </c>
+      <c r="AA26">
+        <v>4.4490000000000002E-2</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="28"/>
+        <v>3.3293578552538454</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="33"/>
+        <v>140.14879882167361</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="30"/>
+        <v>153.19988161426869</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="31"/>
+        <v>6.5255413962975366</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="32"/>
+        <v>13.051082792595082</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="18"/>
+        <v>4.090695067101352E-2</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="20"/>
+        <v>140.67434021797115</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="21"/>
+        <v>152.67434021797115</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL26">
+        <v>6</v>
+      </c>
+      <c r="AM26" s="13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="15">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13">
         <v>175.25835547595406</v>
       </c>
-      <c r="C30" s="18">
+      <c r="D27" s="17">
         <v>112.049283302025</v>
       </c>
-      <c r="D30" s="13">
+      <c r="E27" s="13">
         <v>2.9312901692034319</v>
       </c>
-      <c r="E30" s="25">
+      <c r="F27" s="24">
         <f t="shared" si="0"/>
         <v>3.2782053192476755E-2</v>
       </c>
-      <c r="F30" s="13">
+      <c r="G27" s="13">
         <v>4.3314607561379361</v>
       </c>
-      <c r="G30" s="13">
+      <c r="H27" s="13">
         <v>1.53700270791351</v>
       </c>
-      <c r="H30" s="13">
+      <c r="I27" s="13">
         <v>605890.00971562765</v>
       </c>
-      <c r="I30" s="13">
+      <c r="J27" s="13">
         <v>16907</v>
       </c>
-      <c r="J30" s="13">
+      <c r="K27" s="13">
         <v>199</v>
       </c>
-      <c r="K30" s="13">
+      <c r="L27" s="13">
         <v>11.2562814070352</v>
       </c>
-      <c r="L30" s="16">
+      <c r="M27" s="15">
         <v>1</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="15">
+      <c r="N27" s="16"/>
+      <c r="O27" s="14">
         <v>0.95</v>
       </c>
-      <c r="O30" s="13">
-        <f t="shared" si="1"/>
+      <c r="P27" s="13">
+        <f t="shared" si="8"/>
         <v>5.2358421790685075E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="13">
+      <c r="Q27">
+        <f t="shared" si="9"/>
+        <v>169.51302674431534</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="10"/>
+        <v>181.00368420759278</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="11"/>
+        <v>11.490657463277444</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="12"/>
+        <v>5.7453287316387263</v>
+      </c>
+      <c r="U27" s="31">
+        <f t="shared" si="23"/>
+        <v>3.4235172318635709E-2</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="25"/>
+        <v>169.25835547595406</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="26"/>
+        <v>181.25835547595406</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z27">
+        <v>6</v>
+      </c>
+      <c r="AA27">
+        <v>3.1140000000000001E-2</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="28"/>
+        <v>2.7844618313883727</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="33"/>
+        <v>169.80081028643286</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="30"/>
+        <v>180.71590066547526</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="31"/>
+        <v>5.4575451895212099</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="32"/>
+        <v>10.915090379042397</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="18"/>
+        <v>3.4235172318635709E-2</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="20"/>
+        <v>169.25835547595406</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="21"/>
+        <v>181.25835547595406</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL27">
+        <v>6</v>
+      </c>
+      <c r="AM27" s="13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="15">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13">
         <v>179.81257242353246</v>
       </c>
-      <c r="C31" s="18">
+      <c r="D28" s="17">
         <v>122.751434479807</v>
       </c>
-      <c r="D31" s="13">
+      <c r="E28" s="13">
         <v>3.3819728443535353</v>
       </c>
-      <c r="E31" s="25">
+      <c r="F28" s="24">
         <f t="shared" si="0"/>
         <v>3.6864312019960967E-2</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G28" s="13">
         <v>0.71516125762949856</v>
       </c>
-      <c r="G31" s="13">
+      <c r="H28" s="13">
         <v>1.23584337172796</v>
       </c>
-      <c r="H31" s="13">
+      <c r="I28" s="13">
         <v>90177.495556945418</v>
       </c>
-      <c r="I31" s="13">
+      <c r="J28" s="13">
         <v>2423</v>
       </c>
-      <c r="J31" s="13">
+      <c r="K28" s="13">
         <v>143</v>
       </c>
-      <c r="K31" s="13">
+      <c r="L28" s="13">
         <v>11.188811188811201</v>
       </c>
-      <c r="L31" s="16">
+      <c r="M28" s="15">
         <v>1</v>
       </c>
-      <c r="M31" s="17"/>
-      <c r="N31" s="15">
+      <c r="N28" s="16"/>
+      <c r="O28" s="14">
         <v>0.95</v>
       </c>
-      <c r="O31" s="13">
-        <f t="shared" si="1"/>
+      <c r="P28" s="13">
+        <f t="shared" si="8"/>
         <v>2.3147290430403734E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="13">
+      <c r="Q28">
+        <f t="shared" si="9"/>
+        <v>173.18390564859953</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="10"/>
+        <v>186.44123919846538</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="11"/>
+        <v>13.257333549865848</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="12"/>
+        <v>6.6286667749329293</v>
+      </c>
+      <c r="U28" s="31">
+        <f t="shared" si="23"/>
+        <v>3.3368078322507592E-2</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="25"/>
+        <v>173.81257242353246</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="26"/>
+        <v>185.81257242353246</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z28">
+        <v>6</v>
+      </c>
+      <c r="AA28">
+        <v>4.2119999999999998E-2</v>
+      </c>
+      <c r="AB28">
+        <f t="shared" si="28"/>
+        <v>3.8641354849383607</v>
+      </c>
+      <c r="AC28">
+        <f t="shared" si="33"/>
+        <v>172.23886687305327</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="30"/>
+        <v>187.38627797401165</v>
+      </c>
+      <c r="AE28">
+        <f t="shared" si="31"/>
+        <v>7.573705550479187</v>
+      </c>
+      <c r="AF28">
+        <f t="shared" si="32"/>
+        <v>15.147411100958379</v>
+      </c>
+      <c r="AG28">
+        <f t="shared" si="18"/>
+        <v>3.3368078322507592E-2</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI28">
+        <f t="shared" si="20"/>
+        <v>173.81257242353246</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="21"/>
+        <v>185.81257242353246</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL28">
+        <v>6</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="15">
+        <v>3</v>
+      </c>
+      <c r="C29" s="13">
         <v>168.20845874073703</v>
       </c>
-      <c r="C32" s="18">
+      <c r="D29" s="17">
         <v>113.271395147178</v>
       </c>
-      <c r="D32" s="13">
+      <c r="E29" s="13">
         <v>3.1495307192573248</v>
       </c>
-      <c r="E32" s="25">
+      <c r="F29" s="24">
         <f t="shared" si="0"/>
         <v>3.6698988005466747E-2</v>
       </c>
-      <c r="F32" s="13">
+      <c r="G29" s="13">
         <v>0.52852582941816495</v>
       </c>
-      <c r="G32" s="13">
+      <c r="H29" s="13">
         <v>1.1932444394903099</v>
       </c>
-      <c r="H32" s="13">
+      <c r="I29" s="13">
         <v>65430.479109912565</v>
       </c>
-      <c r="I32" s="13">
+      <c r="J29" s="13">
         <v>1797</v>
       </c>
-      <c r="J32" s="13">
+      <c r="K29" s="13">
         <v>131</v>
       </c>
-      <c r="K32" s="13">
+      <c r="L29" s="13">
         <v>11.526717557251899</v>
       </c>
-      <c r="L32" s="16">
+      <c r="M29" s="15">
         <v>1</v>
       </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="15">
+      <c r="N29" s="16"/>
+      <c r="O29" s="14">
         <v>0.95</v>
       </c>
-      <c r="O32" s="13">
-        <f t="shared" si="1"/>
+      <c r="P29" s="13">
+        <f t="shared" si="8"/>
         <v>1.8357521082835837E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="13">
+      <c r="Q29">
+        <f t="shared" si="9"/>
+        <v>162.03537853099266</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="10"/>
+        <v>174.3815389504814</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="11"/>
+        <v>12.34616041948874</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="12"/>
+        <v>6.1730802097443567</v>
+      </c>
+      <c r="U29" s="31">
+        <f t="shared" si="23"/>
+        <v>3.5670025425106097E-2</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="25"/>
+        <v>162.20845874073703</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="26"/>
+        <v>174.20845874073703</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z29">
+        <v>6</v>
+      </c>
+      <c r="AA29">
+        <v>4.5179999999999998E-2</v>
+      </c>
+      <c r="AB29">
+        <f t="shared" si="28"/>
+        <v>3.8773766152584179</v>
+      </c>
+      <c r="AC29">
+        <f t="shared" si="33"/>
+        <v>160.60880057483052</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="30"/>
+        <v>175.80811690664353</v>
+      </c>
+      <c r="AE29">
+        <f t="shared" si="31"/>
+        <v>7.599658165906499</v>
+      </c>
+      <c r="AF29">
+        <f t="shared" si="32"/>
+        <v>15.199316331813009</v>
+      </c>
+      <c r="AG29">
+        <f t="shared" si="18"/>
+        <v>3.5670025425106097E-2</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI29">
+        <f t="shared" si="20"/>
+        <v>162.20845874073703</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="21"/>
+        <v>174.20845874073703</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL29">
+        <v>6</v>
+      </c>
+      <c r="AM29" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="15">
+        <v>3</v>
+      </c>
+      <c r="C30" s="13">
         <v>157.74690832412537</v>
       </c>
-      <c r="C33" s="18">
+      <c r="D30" s="17">
         <v>111.989431556939</v>
       </c>
-      <c r="D33" s="13">
+      <c r="E30" s="13">
         <v>3.9092212685093339</v>
       </c>
-      <c r="E33" s="25">
+      <c r="F30" s="24">
         <f t="shared" si="0"/>
         <v>4.8571942028397132E-2</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G30" s="13">
         <v>0.63316876256020349</v>
       </c>
-      <c r="G33" s="13">
+      <c r="H30" s="13">
         <v>2.1557202231880801</v>
       </c>
-      <c r="H33" s="13">
+      <c r="I30" s="13">
         <v>49738.381419015604</v>
       </c>
-      <c r="I33" s="13">
+      <c r="J30" s="13">
         <v>1376</v>
       </c>
-      <c r="J33" s="13">
+      <c r="K30" s="13">
         <v>152</v>
       </c>
-      <c r="K33" s="13">
+      <c r="L30" s="13">
         <v>11.2434210526316</v>
       </c>
-      <c r="L33" s="16">
+      <c r="M30" s="15">
         <v>1</v>
       </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="15">
+      <c r="N30" s="16"/>
+      <c r="O30" s="14">
         <v>0.95</v>
       </c>
-      <c r="O33" s="13">
-        <f t="shared" si="1"/>
+      <c r="P30" s="13">
+        <f t="shared" si="8"/>
         <v>0.11282560945702493</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="13">
+      <c r="Q30">
+        <f t="shared" si="9"/>
+        <v>150.08483463784708</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="10"/>
+        <v>165.40898201040366</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="11"/>
+        <v>15.324147372556581</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="12"/>
+        <v>7.6620736862782941</v>
+      </c>
+      <c r="U30" s="31">
+        <f t="shared" si="23"/>
+        <v>3.8035610737116275E-2</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="25"/>
+        <v>151.74690832412537</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="26"/>
+        <v>163.74690832412537</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z30">
+        <v>6</v>
+      </c>
+      <c r="AA30">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AB30">
+        <f t="shared" si="28"/>
+        <v>5.231402571973546</v>
+      </c>
+      <c r="AC30">
+        <f t="shared" si="33"/>
+        <v>147.49335928305723</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="30"/>
+        <v>168.00045736519351</v>
+      </c>
+      <c r="AE30">
+        <f t="shared" si="31"/>
+        <v>10.253549041068149</v>
+      </c>
+      <c r="AF30">
+        <f t="shared" si="32"/>
+        <v>20.507098082136281</v>
+      </c>
+      <c r="AG30">
+        <f t="shared" si="18"/>
+        <v>3.8035610737116275E-2</v>
+      </c>
+      <c r="AH30">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI30">
+        <f t="shared" si="20"/>
+        <v>151.74690832412537</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="21"/>
+        <v>163.74690832412537</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL30">
+        <v>6</v>
+      </c>
+      <c r="AM30" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="15">
+        <v>3</v>
+      </c>
+      <c r="C31" s="13">
         <v>166.05786762254897</v>
       </c>
-      <c r="C34" s="18">
+      <c r="D31" s="17">
         <v>116.283455992653</v>
       </c>
-      <c r="D34" s="13">
+      <c r="E31" s="13">
         <v>3.0795113027306296</v>
       </c>
-      <c r="E34" s="25">
+      <c r="F31" s="24">
         <f t="shared" si="0"/>
         <v>3.634782404331216E-2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="G31" s="13">
         <v>0.29077957849341335</v>
       </c>
-      <c r="G34" s="13">
+      <c r="H31" s="13">
         <v>1.2813249143690699</v>
       </c>
-      <c r="H34" s="13">
+      <c r="I31" s="13">
         <v>39686.2830310399</v>
       </c>
-      <c r="I34" s="13">
+      <c r="J31" s="13">
         <v>1244</v>
       </c>
-      <c r="J34" s="13">
+      <c r="K31" s="13">
         <v>150</v>
       </c>
-      <c r="K34" s="13">
+      <c r="L31" s="13">
         <v>11.6533333333333</v>
       </c>
-      <c r="L34" s="16">
+      <c r="M31" s="15">
         <v>1</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="15">
+      <c r="N31" s="16"/>
+      <c r="O31" s="14">
         <v>0.95</v>
       </c>
-      <c r="O34" s="13">
-        <f t="shared" si="1"/>
+      <c r="P31" s="13">
+        <f t="shared" si="8"/>
         <v>2.6407219746783867E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="13">
+      <c r="Q31">
+        <f t="shared" si="9"/>
+        <v>160.02202546919693</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="10"/>
+        <v>172.093709775901</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="11"/>
+        <v>12.071684306704071</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="12"/>
+        <v>6.0358421533520339</v>
+      </c>
+      <c r="U31" s="31">
+        <f t="shared" si="23"/>
+        <v>3.6131982699176016E-2</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="25"/>
+        <v>160.05786762254897</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="26"/>
+        <v>172.05786762254897</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z31">
+        <v>6</v>
+      </c>
+      <c r="AA31">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="AB31">
+        <f t="shared" si="28"/>
+        <v>4.4903402979566813</v>
+      </c>
+      <c r="AC31">
+        <f t="shared" si="33"/>
+        <v>157.25680063855387</v>
+      </c>
+      <c r="AD31">
+        <f t="shared" si="30"/>
+        <v>174.85893460654407</v>
+      </c>
+      <c r="AE31">
+        <f t="shared" si="31"/>
+        <v>8.8010669839950957</v>
+      </c>
+      <c r="AF31">
+        <f t="shared" si="32"/>
+        <v>17.602133967990198</v>
+      </c>
+      <c r="AG31">
+        <f t="shared" si="18"/>
+        <v>3.6131982699176016E-2</v>
+      </c>
+      <c r="AH31">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI31">
+        <f t="shared" si="20"/>
+        <v>160.05786762254897</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="21"/>
+        <v>172.05786762254897</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL31">
+        <v>6</v>
+      </c>
+      <c r="AM31" s="13">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="15">
+        <v>3</v>
+      </c>
+      <c r="C32" s="13">
         <v>144.37176109221753</v>
       </c>
-      <c r="C35" s="18">
+      <c r="D32" s="17">
         <v>96.095086141697493</v>
       </c>
-      <c r="D35" s="13">
+      <c r="E32" s="13">
         <v>3.2809746876877983</v>
       </c>
-      <c r="E35" s="25">
+      <c r="F32" s="24">
         <f t="shared" si="0"/>
         <v>4.4542716243244171E-2</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G32" s="13">
         <v>0.93328132395990959</v>
       </c>
-      <c r="G35" s="13">
+      <c r="H32" s="13">
         <v>1.81750036582271</v>
       </c>
-      <c r="H35" s="13">
+      <c r="I32" s="13">
         <v>76626.263461422815</v>
       </c>
-      <c r="I35" s="13">
+      <c r="J32" s="13">
         <v>1315</v>
       </c>
-      <c r="J35" s="13">
+      <c r="K32" s="13">
         <v>132</v>
       </c>
-      <c r="K35" s="13">
+      <c r="L32" s="13">
         <v>11.575757575757599</v>
       </c>
-      <c r="L35" s="16">
+      <c r="M32" s="15">
         <v>1</v>
       </c>
-      <c r="M35" s="17"/>
-      <c r="N35" s="15">
+      <c r="N32" s="16"/>
+      <c r="O32" s="14">
         <v>0.95</v>
       </c>
-      <c r="O35" s="13">
-        <f t="shared" si="1"/>
+      <c r="P32" s="13">
+        <f t="shared" si="8"/>
         <v>7.72994615247833E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="13">
+      <c r="Q32">
+        <f t="shared" si="9"/>
+        <v>137.94105070434944</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="10"/>
+        <v>150.80247148008561</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="11"/>
+        <v>12.861420775736178</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="12"/>
+        <v>6.4307103878680847</v>
+      </c>
+      <c r="U32" s="31">
+        <f t="shared" si="23"/>
+        <v>4.1559373901157146E-2</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="25"/>
+        <v>138.37176109221753</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="26"/>
+        <v>150.37176109221753</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z32">
+        <v>6</v>
+      </c>
+      <c r="AA32">
+        <v>5.3530000000000001E-2</v>
+      </c>
+      <c r="AB32">
+        <f t="shared" si="28"/>
+        <v>3.9429695771767372</v>
+      </c>
+      <c r="AC32">
+        <f t="shared" si="33"/>
+        <v>136.64354072095111</v>
+      </c>
+      <c r="AD32">
+        <f t="shared" si="30"/>
+        <v>152.09998146348394</v>
+      </c>
+      <c r="AE32">
+        <f t="shared" si="31"/>
+        <v>7.7282203712664046</v>
+      </c>
+      <c r="AF32">
+        <f t="shared" si="32"/>
+        <v>15.456440742532834</v>
+      </c>
+      <c r="AG32">
+        <f t="shared" si="18"/>
+        <v>4.1559373901157146E-2</v>
+      </c>
+      <c r="AH32">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI32">
+        <f t="shared" si="20"/>
+        <v>138.37176109221753</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="21"/>
+        <v>150.37176109221753</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL32">
+        <v>6</v>
+      </c>
+      <c r="AM32" s="13">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="15">
+        <v>3</v>
+      </c>
+      <c r="C33" s="13">
         <v>176.8782623826869</v>
       </c>
-      <c r="C36" s="18">
+      <c r="D33" s="17">
         <v>111.31768512354699</v>
       </c>
-      <c r="D36" s="13">
+      <c r="E33" s="13">
         <v>2.6793393057011174</v>
       </c>
-      <c r="E36" s="25">
+      <c r="F33" s="24">
         <f t="shared" si="0"/>
         <v>2.968994023591344E-2</v>
       </c>
-      <c r="F36" s="13">
+      <c r="G33" s="13">
         <v>0.34061371905128202</v>
       </c>
-      <c r="G36" s="13">
+      <c r="H33" s="13">
         <v>0.96479242083595396</v>
       </c>
-      <c r="H36" s="13">
+      <c r="I33" s="13">
         <v>56275.560334357884</v>
       </c>
-      <c r="I36" s="13">
+      <c r="J33" s="13">
         <v>1656</v>
       </c>
-      <c r="J36" s="13">
+      <c r="K33" s="13">
         <v>139</v>
       </c>
-      <c r="K36" s="13">
+      <c r="L33" s="13">
         <v>11.6618705035971</v>
       </c>
-      <c r="L36" s="16">
+      <c r="M33" s="15">
         <v>1</v>
       </c>
-      <c r="M36" s="17"/>
-      <c r="N36" s="15">
+      <c r="N33" s="16"/>
+      <c r="O33" s="14">
         <v>0.95</v>
       </c>
-      <c r="O36" s="13">
-        <f t="shared" si="1"/>
+      <c r="P33" s="13">
+        <f t="shared" si="8"/>
         <v>-3.3021953466952835E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="13">
+      <c r="Q33">
+        <f t="shared" si="9"/>
+        <v>171.62675734351271</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="10"/>
+        <v>182.12976742186109</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="11"/>
+        <v>10.503010078348382</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="12"/>
+        <v>5.25150503917419</v>
+      </c>
+      <c r="U33" s="31">
+        <f t="shared" si="23"/>
+        <v>3.3921635814233825E-2</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="25"/>
+        <v>170.8782623826869</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="26"/>
+        <v>182.8782623826869</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z33">
+        <v>6</v>
+      </c>
+      <c r="AA33">
+        <v>3.4750000000000003E-2</v>
+      </c>
+      <c r="AB33">
+        <f t="shared" si="28"/>
+        <v>3.1359793968359031</v>
+      </c>
+      <c r="AC33">
+        <f t="shared" si="33"/>
+        <v>170.73174276488854</v>
+      </c>
+      <c r="AD33">
+        <f t="shared" si="30"/>
+        <v>183.02478200048526</v>
+      </c>
+      <c r="AE33">
+        <f t="shared" si="31"/>
+        <v>6.1465196177983703</v>
+      </c>
+      <c r="AF33">
+        <f t="shared" si="32"/>
+        <v>12.293039235596723</v>
+      </c>
+      <c r="AG33">
+        <f t="shared" si="18"/>
+        <v>3.3921635814233825E-2</v>
+      </c>
+      <c r="AH33">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI33">
+        <f t="shared" si="20"/>
+        <v>170.8782623826869</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="21"/>
+        <v>182.8782623826869</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL33">
+        <v>6</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3</v>
+      </c>
+      <c r="C34" s="13">
         <v>188.90303590357482</v>
       </c>
-      <c r="C37" s="18">
+      <c r="D34" s="17">
         <v>118.819325707432</v>
       </c>
-      <c r="D37" s="13">
+      <c r="E34" s="13">
         <v>3.4155301281409964</v>
       </c>
-      <c r="E37" s="25">
+      <c r="F34" s="24">
         <f t="shared" si="0"/>
         <v>3.5438493717875011E-2</v>
       </c>
-      <c r="F37" s="13">
+      <c r="G34" s="13">
         <v>0.39590133477140116</v>
       </c>
-      <c r="G37" s="13">
+      <c r="H34" s="13">
         <v>1.4327792999148199</v>
       </c>
-      <c r="H37" s="13">
+      <c r="I34" s="13">
         <v>45860.402064023387</v>
       </c>
-      <c r="I37" s="13">
+      <c r="J34" s="13">
         <v>2378</v>
       </c>
-      <c r="J37" s="13">
+      <c r="K34" s="13">
         <v>146</v>
       </c>
-      <c r="K37" s="13">
+      <c r="L34" s="13">
         <v>11.4520547945205</v>
       </c>
-      <c r="L37" s="16">
+      <c r="M34" s="15">
         <v>1</v>
       </c>
-      <c r="M37" s="17"/>
-      <c r="N37" s="15">
+      <c r="N34" s="16"/>
+      <c r="O34" s="14">
         <v>0.95</v>
       </c>
-      <c r="O37" s="13">
-        <f t="shared" si="1"/>
+      <c r="P34" s="13">
+        <f t="shared" si="8"/>
         <v>4.1406145339163827E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="19">
-        <f>AVERAGE(E29:E37)</f>
-        <v>3.7962742210263384E-2</v>
-      </c>
-      <c r="C39">
-        <f>AVERAGE(E29:E37)</f>
-        <v>3.7962742210263384E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="26">
-        <f>(E18+E19+E20+E23+E25+E26)/6</f>
-        <v>0.12099916574359067</v>
-      </c>
-      <c r="C40">
-        <f>(E18+E19+E20+E23+E25+E26)/6</f>
-        <v>0.12099916574359067</v>
-      </c>
-      <c r="D40">
-        <f>C40/C39</f>
-        <v>3.187313631702771</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="26">
-        <f>(E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E21+E22+E24+E27+E28)/18</f>
-        <v>6.1107125870541505E-2</v>
-      </c>
-      <c r="C41">
-        <f>(E5+E6+E7+E8+E9+E10+E11+E12+E13+E14+E15+E16+E17+E21+E22+E24+E27+E28)/18</f>
-        <v>6.1107125870541505E-2</v>
-      </c>
-      <c r="D41">
-        <f>C41/C39</f>
-        <v>1.6096604805861716</v>
-      </c>
-      <c r="F41">
-        <v>1.5</v>
+      <c r="Q34">
+        <f t="shared" si="9"/>
+        <v>182.20859685241845</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="10"/>
+        <v>195.59747495473118</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="11"/>
+        <v>13.388878102312731</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="12"/>
+        <v>6.694439051156353</v>
+      </c>
+      <c r="U34" s="31">
+        <f t="shared" si="23"/>
+        <v>3.1762327012376274E-2</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="24"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="25"/>
+        <v>182.90303590357482</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="26"/>
+        <v>194.90303590357482</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="27"/>
+        <v>12</v>
+      </c>
+      <c r="Z34">
+        <v>6</v>
+      </c>
+      <c r="AA34">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="AB34">
+        <f t="shared" si="28"/>
+        <v>4.4334385977369601</v>
+      </c>
+      <c r="AC34">
+        <f t="shared" si="33"/>
+        <v>180.21349625201037</v>
+      </c>
+      <c r="AD34">
+        <f t="shared" si="30"/>
+        <v>197.59257555513926</v>
+      </c>
+      <c r="AE34">
+        <f t="shared" si="31"/>
+        <v>8.6895396515644414</v>
+      </c>
+      <c r="AF34">
+        <f t="shared" si="32"/>
+        <v>17.37907930312889</v>
+      </c>
+      <c r="AG34">
+        <f t="shared" si="18"/>
+        <v>3.1762327012376274E-2</v>
+      </c>
+      <c r="AH34">
+        <f t="shared" si="19"/>
+        <v>3.0612244897959182</v>
+      </c>
+      <c r="AI34">
+        <f t="shared" si="20"/>
+        <v>182.90303590357482</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="21"/>
+        <v>194.90303590357482</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="22"/>
+        <v>12</v>
+      </c>
+      <c r="AL34">
+        <v>6</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="AH41" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM34"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>7.7109999999999998E-2</v>
+      </c>
+      <c r="B1">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="C1">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D1">
+        <v>5.11E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5.3039999999999997E-2</v>
+      </c>
+      <c r="B2">
+        <v>0.10122</v>
+      </c>
+      <c r="C2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D2">
+        <v>8.2360000000000003E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.13022</v>
+      </c>
+      <c r="F2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G2">
+        <v>8.301E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.11355999999999999</v>
+      </c>
+      <c r="J2">
+        <v>9.3310000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>5.1549999999999999E-2</v>
+      </c>
+      <c r="B3">
+        <v>7.8880000000000006E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="D3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.6550000000000001E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.4490000000000002E-2</v>
+      </c>
+      <c r="G3">
+        <v>3.1140000000000001E-2</v>
+      </c>
+      <c r="H3">
+        <v>4.2119999999999998E-2</v>
+      </c>
+      <c r="I3">
+        <v>4.5179999999999998E-2</v>
+      </c>
+      <c r="J3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="B4">
+        <v>5.3530000000000001E-2</v>
+      </c>
+      <c r="C4">
+        <v>3.4750000000000003E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7.7109999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5.11E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5.3039999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0.10122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>8.2360000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0.13022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>8.301E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0.11355999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9.3310000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5.1549999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>7.8880000000000006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4.6550000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>4.4490000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>3.1140000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>4.2119999999999998E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>4.5179999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>5.3530000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3.4750000000000003E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+    <row r="26" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
